--- a/excel/树木石头.xlsx
+++ b/excel/树木石头.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/work/godus/trunk/develop/config_tools/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545"/>
   </bookViews>
   <sheets>
-    <sheet name="stone" sheetId="1" r:id="rId1"/>
-    <sheet name="tree" sheetId="2" r:id="rId2"/>
+    <sheet name="StoneCfg" sheetId="1" r:id="rId1"/>
+    <sheet name="TreeCfg" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -278,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,26 +645,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="3"/>
+    <col min="8" max="8" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -698,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>26</v>
@@ -711,7 +706,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -740,7 +735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -769,7 +764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -798,7 +793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -821,7 +816,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>1002</v>
       </c>
@@ -844,7 +839,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>1003</v>
       </c>
@@ -867,7 +862,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
@@ -885,24 +880,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -937,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="33" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>26</v>
@@ -962,7 +957,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -997,7 +992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1032,7 +1027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1067,7 +1062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1001</v>
       </c>
@@ -1098,7 +1093,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>1002</v>
       </c>
@@ -1129,7 +1124,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>1003</v>
       </c>
@@ -1160,7 +1155,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1173,7 +1168,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1186,7 +1181,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1199,7 +1194,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1212,7 +1207,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1228,5 +1223,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>